--- a/simulation/voltageripple.xlsx
+++ b/simulation/voltageripple.xlsx
@@ -347,34 +347,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>7.041909269513809</v>
+        <v>7.0419092695150622</v>
       </c>
       <c r="B1">
-        <v>3.6319597791612348</v>
+        <v>3.6319597791605096</v>
       </c>
       <c r="C1">
-        <v>2.5231363819987052</v>
+        <v>2.5231363819972916</v>
       </c>
       <c r="D1">
-        <v>2.0425289224273238</v>
+        <v>2.0425289224275822</v>
       </c>
       <c r="E1">
-        <v>1.9536977512084313</v>
+        <v>1.9536977512102796</v>
       </c>
       <c r="F1">
-        <v>1.5139668821335746</v>
+        <v>1.5139668821335635</v>
       </c>
       <c r="G1">
-        <v>1.186292998854259</v>
+        <v>1.1862929988540554</v>
       </c>
       <c r="H1">
-        <v>1.3485178048090256</v>
+        <v>1.3485178048073274</v>
       </c>
       <c r="I1">
-        <v>1.1554917218943983</v>
+        <v>1.1554917218959488</v>
       </c>
       <c r="J1">
-        <v>0.93010778518995363</v>
+        <v>0.93010778518940085</v>
       </c>
     </row>
   </sheetData>
